--- a/Bewertung.xlsx
+++ b/Bewertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\kirch\DHBW\Python\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C8E056-7163-4593-A895-2C256B4519E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6076E9-85CF-431D-BE5D-3352592D7500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D12" s="4">
         <f>SUM(D6:D11)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4">
         <f>SUM(E6:E11)</f>
